--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lamc2-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lamc2-Itga6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Lamc2</t>
   </si>
   <si>
     <t>Itga6</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.250975</v>
+        <v>1.598137666666667</v>
       </c>
       <c r="H2">
-        <v>3.752925</v>
+        <v>4.794413</v>
       </c>
       <c r="I2">
-        <v>0.2242778682025356</v>
+        <v>0.2574006098591189</v>
       </c>
       <c r="J2">
-        <v>0.2242778682025356</v>
+        <v>0.2574006098591188</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>209.1122436666667</v>
+        <v>173.5452066666667</v>
       </c>
       <c r="N2">
-        <v>627.336731</v>
+        <v>520.63562</v>
       </c>
       <c r="O2">
-        <v>0.5129127453994473</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="P2">
-        <v>0.5129127453994472</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="Q2">
-        <v>261.5941890209083</v>
+        <v>277.3491316434512</v>
       </c>
       <c r="R2">
-        <v>2354.347701188175</v>
+        <v>2496.14218479106</v>
       </c>
       <c r="S2">
-        <v>0.1150349771120979</v>
+        <v>0.1569857488454717</v>
       </c>
       <c r="T2">
-        <v>0.1150349771120979</v>
+        <v>0.1569857488454716</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.250975</v>
+        <v>1.598137666666667</v>
       </c>
       <c r="H3">
-        <v>3.752925</v>
+        <v>4.794413</v>
       </c>
       <c r="I3">
-        <v>0.2242778682025356</v>
+        <v>0.2574006098591189</v>
       </c>
       <c r="J3">
-        <v>0.2242778682025356</v>
+        <v>0.2574006098591188</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.786578</v>
       </c>
       <c r="O3">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="P3">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="Q3">
-        <v>1.161979804516667</v>
+        <v>1.484445087634889</v>
       </c>
       <c r="R3">
-        <v>10.45781824065</v>
+        <v>13.360005788714</v>
       </c>
       <c r="S3">
-        <v>0.000510975877245542</v>
+        <v>0.0008402287842816378</v>
       </c>
       <c r="T3">
-        <v>0.000510975877245542</v>
+        <v>0.0008402287842816377</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.250975</v>
+        <v>1.598137666666667</v>
       </c>
       <c r="H4">
-        <v>3.752925</v>
+        <v>4.794413</v>
       </c>
       <c r="I4">
-        <v>0.2242778682025356</v>
+        <v>0.2574006098591189</v>
       </c>
       <c r="J4">
-        <v>0.2242778682025356</v>
+        <v>0.2574006098591188</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.0924226666667</v>
+        <v>54.64271666666667</v>
       </c>
       <c r="N4">
-        <v>372.277268</v>
+        <v>163.92815</v>
       </c>
       <c r="O4">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="P4">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="Q4">
-        <v>155.2365184454333</v>
+        <v>87.32658371399447</v>
       </c>
       <c r="R4">
-        <v>1397.1286660089</v>
+        <v>785.9392534259501</v>
       </c>
       <c r="S4">
-        <v>0.0682646254994024</v>
+        <v>0.04942877973774213</v>
       </c>
       <c r="T4">
-        <v>0.0682646254994024</v>
+        <v>0.04942877973774212</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.250975</v>
+        <v>1.598137666666667</v>
       </c>
       <c r="H5">
-        <v>3.752925</v>
+        <v>4.794413</v>
       </c>
       <c r="I5">
-        <v>0.2242778682025356</v>
+        <v>0.2574006098591189</v>
       </c>
       <c r="J5">
-        <v>0.2242778682025356</v>
+        <v>0.2574006098591188</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9954153333333334</v>
+        <v>1.069012</v>
       </c>
       <c r="N5">
-        <v>2.986246</v>
+        <v>3.207036</v>
       </c>
       <c r="O5">
-        <v>0.002441565364515725</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="P5">
-        <v>0.002441565364515724</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="Q5">
-        <v>1.245239696616667</v>
+        <v>1.708428343318667</v>
       </c>
       <c r="R5">
-        <v>11.20715726955</v>
+        <v>15.375855089868</v>
       </c>
       <c r="S5">
-        <v>0.0005475890750307335</v>
+        <v>0.0009670082658470162</v>
       </c>
       <c r="T5">
-        <v>0.0005475890750307334</v>
+        <v>0.0009670082658470162</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.250975</v>
+        <v>1.598137666666667</v>
       </c>
       <c r="H6">
-        <v>3.752925</v>
+        <v>4.794413</v>
       </c>
       <c r="I6">
-        <v>0.2242778682025356</v>
+        <v>0.2574006098591189</v>
       </c>
       <c r="J6">
-        <v>0.2242778682025356</v>
+        <v>0.2574006098591188</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>72.56660866666667</v>
+        <v>54.36641700000001</v>
       </c>
       <c r="N6">
-        <v>217.699826</v>
+        <v>163.099251</v>
       </c>
       <c r="O6">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="P6">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="Q6">
-        <v>90.77901327678333</v>
+        <v>86.88501880940701</v>
       </c>
       <c r="R6">
-        <v>817.01111949105</v>
+        <v>781.9651692846631</v>
       </c>
       <c r="S6">
-        <v>0.03991970063875903</v>
+        <v>0.04917884422577646</v>
       </c>
       <c r="T6">
-        <v>0.03991970063875903</v>
+        <v>0.04917884422577645</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>11.725855</v>
       </c>
       <c r="I7">
-        <v>0.7007466875176145</v>
+        <v>0.6295332146228534</v>
       </c>
       <c r="J7">
-        <v>0.7007466875176146</v>
+        <v>0.6295332146228533</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>209.1122436666667</v>
+        <v>173.5452066666667</v>
       </c>
       <c r="N7">
-        <v>627.336731</v>
+        <v>520.63562</v>
       </c>
       <c r="O7">
-        <v>0.5129127453994473</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="P7">
-        <v>0.5129127453994472</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="Q7">
-        <v>817.3399493200006</v>
+        <v>678.3219764394556</v>
       </c>
       <c r="R7">
-        <v>7356.059543880006</v>
+        <v>6104.8977879551</v>
       </c>
       <c r="S7">
-        <v>0.3594219073242282</v>
+        <v>0.383945256286519</v>
       </c>
       <c r="T7">
-        <v>0.3594219073242282</v>
+        <v>0.3839452562865189</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>11.725855</v>
       </c>
       <c r="I8">
-        <v>0.7007466875176145</v>
+        <v>0.6295332146228534</v>
       </c>
       <c r="J8">
-        <v>0.7007466875176146</v>
+        <v>0.6295332146228533</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>2.786578</v>
       </c>
       <c r="O8">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="P8">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="Q8">
         <v>3.630556619354445</v>
@@ -948,10 +948,10 @@
         <v>32.67500957419</v>
       </c>
       <c r="S8">
-        <v>0.001596522457837294</v>
+        <v>0.002054975424793977</v>
       </c>
       <c r="T8">
-        <v>0.001596522457837294</v>
+        <v>0.002054975424793976</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>11.725855</v>
       </c>
       <c r="I9">
-        <v>0.7007466875176145</v>
+        <v>0.6295332146228534</v>
       </c>
       <c r="J9">
-        <v>0.7007466875176146</v>
+        <v>0.6295332146228533</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>124.0924226666667</v>
+        <v>54.64271666666667</v>
       </c>
       <c r="N9">
-        <v>372.277268</v>
+        <v>163.92815</v>
       </c>
       <c r="O9">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="P9">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="Q9">
-        <v>485.0299182626823</v>
+        <v>213.5775241464723</v>
       </c>
       <c r="R9">
-        <v>4365.26926436414</v>
+        <v>1922.19771731825</v>
       </c>
       <c r="S9">
-        <v>0.2132899272528215</v>
+        <v>0.120889607138914</v>
       </c>
       <c r="T9">
-        <v>0.2132899272528216</v>
+        <v>0.120889607138914</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>11.725855</v>
       </c>
       <c r="I10">
-        <v>0.7007466875176145</v>
+        <v>0.6295332146228534</v>
       </c>
       <c r="J10">
-        <v>0.7007466875176146</v>
+        <v>0.6295332146228533</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9954153333333334</v>
+        <v>1.069012</v>
       </c>
       <c r="N10">
-        <v>2.986246</v>
+        <v>3.207036</v>
       </c>
       <c r="O10">
-        <v>0.002441565364515725</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="P10">
-        <v>0.002441565364515724</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="Q10">
-        <v>3.890698621147779</v>
+        <v>4.178359901753334</v>
       </c>
       <c r="R10">
-        <v>35.01628759033001</v>
+        <v>37.60523911578001</v>
       </c>
       <c r="S10">
-        <v>0.001710918841542131</v>
+        <v>0.002365044210651765</v>
       </c>
       <c r="T10">
-        <v>0.001710918841542131</v>
+        <v>0.002365044210651766</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>11.725855</v>
       </c>
       <c r="I11">
-        <v>0.7007466875176145</v>
+        <v>0.6295332146228534</v>
       </c>
       <c r="J11">
-        <v>0.7007466875176146</v>
+        <v>0.6295332146228533</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>72.56660866666667</v>
+        <v>54.36641700000001</v>
       </c>
       <c r="N11">
-        <v>217.699826</v>
+        <v>163.099251</v>
       </c>
       <c r="O11">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="P11">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="Q11">
-        <v>283.6351770223589</v>
+        <v>212.497574203845</v>
       </c>
       <c r="R11">
-        <v>2552.71659320123</v>
+        <v>1912.478167834605</v>
       </c>
       <c r="S11">
-        <v>0.1247274116411854</v>
+        <v>0.1202783315619747</v>
       </c>
       <c r="T11">
-        <v>0.1247274116411854</v>
+        <v>0.1202783315619747</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.00825</v>
+        <v>0.1524303333333333</v>
       </c>
       <c r="H12">
-        <v>0.02475</v>
+        <v>0.457291</v>
       </c>
       <c r="I12">
-        <v>0.001479080247543651</v>
+        <v>0.02455086415857089</v>
       </c>
       <c r="J12">
-        <v>0.001479080247543651</v>
+        <v>0.02455086415857088</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>209.1122436666667</v>
+        <v>173.5452066666667</v>
       </c>
       <c r="N12">
-        <v>627.336731</v>
+        <v>520.63562</v>
       </c>
       <c r="O12">
-        <v>0.5129127453994473</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="P12">
-        <v>0.5129127453994472</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="Q12">
-        <v>1.72517601025</v>
+        <v>26.45355370060222</v>
       </c>
       <c r="R12">
-        <v>15.52658409225</v>
+        <v>238.08198330542</v>
       </c>
       <c r="S12">
-        <v>0.0007586391104337083</v>
+        <v>0.01497329705957634</v>
       </c>
       <c r="T12">
-        <v>0.000758639110433708</v>
+        <v>0.01497329705957634</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.00825</v>
+        <v>0.1524303333333333</v>
       </c>
       <c r="H13">
-        <v>0.02475</v>
+        <v>0.457291</v>
       </c>
       <c r="I13">
-        <v>0.001479080247543651</v>
+        <v>0.02455086415857089</v>
       </c>
       <c r="J13">
-        <v>0.001479080247543651</v>
+        <v>0.02455086415857088</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>2.786578</v>
       </c>
       <c r="O13">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="P13">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="Q13">
-        <v>0.0076630895</v>
+        <v>0.1415863377997778</v>
       </c>
       <c r="R13">
-        <v>0.06896780550000001</v>
+        <v>1.274277040198</v>
       </c>
       <c r="S13">
-        <v>3.369812336198343E-06</v>
+        <v>8.014100182711302E-05</v>
       </c>
       <c r="T13">
-        <v>3.369812336198343E-06</v>
+        <v>8.0141001827113E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.00825</v>
+        <v>0.1524303333333333</v>
       </c>
       <c r="H14">
-        <v>0.02475</v>
+        <v>0.457291</v>
       </c>
       <c r="I14">
-        <v>0.001479080247543651</v>
+        <v>0.02455086415857089</v>
       </c>
       <c r="J14">
-        <v>0.001479080247543651</v>
+        <v>0.02455086415857088</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>124.0924226666667</v>
+        <v>54.64271666666667</v>
       </c>
       <c r="N14">
-        <v>372.277268</v>
+        <v>163.92815</v>
       </c>
       <c r="O14">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="P14">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="Q14">
-        <v>1.023762487</v>
+        <v>8.32920751573889</v>
       </c>
       <c r="R14">
-        <v>9.213862383</v>
+        <v>74.96286764165001</v>
       </c>
       <c r="S14">
-        <v>0.0004501953759028517</v>
+        <v>0.004714515857322228</v>
       </c>
       <c r="T14">
-        <v>0.0004501953759028517</v>
+        <v>0.004714515857322226</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.00825</v>
+        <v>0.1524303333333333</v>
       </c>
       <c r="H15">
-        <v>0.02475</v>
+        <v>0.457291</v>
       </c>
       <c r="I15">
-        <v>0.001479080247543651</v>
+        <v>0.02455086415857089</v>
       </c>
       <c r="J15">
-        <v>0.001479080247543651</v>
+        <v>0.02455086415857088</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.9954153333333334</v>
+        <v>1.069012</v>
       </c>
       <c r="N15">
-        <v>2.986246</v>
+        <v>3.207036</v>
       </c>
       <c r="O15">
-        <v>0.002441565364515725</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="P15">
-        <v>0.002441565364515724</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="Q15">
-        <v>0.008212176500000001</v>
+        <v>0.1629498554973333</v>
       </c>
       <c r="R15">
-        <v>0.07390958850000001</v>
+        <v>1.466548699476</v>
       </c>
       <c r="S15">
-        <v>3.611271103741923E-06</v>
+        <v>9.223322581877027E-05</v>
       </c>
       <c r="T15">
-        <v>3.611271103741922E-06</v>
+        <v>9.223322581877027E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.00825</v>
+        <v>0.1524303333333333</v>
       </c>
       <c r="H16">
-        <v>0.02475</v>
+        <v>0.457291</v>
       </c>
       <c r="I16">
-        <v>0.001479080247543651</v>
+        <v>0.02455086415857089</v>
       </c>
       <c r="J16">
-        <v>0.001479080247543651</v>
+        <v>0.02455086415857088</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>72.56660866666667</v>
+        <v>54.36641700000001</v>
       </c>
       <c r="N16">
-        <v>217.699826</v>
+        <v>163.099251</v>
       </c>
       <c r="O16">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="P16">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="Q16">
-        <v>0.5986745215</v>
+        <v>8.287091065449001</v>
       </c>
       <c r="R16">
-        <v>5.3880706935</v>
+        <v>74.583819589041</v>
       </c>
       <c r="S16">
-        <v>0.0002632646777671513</v>
+        <v>0.004690677014026439</v>
       </c>
       <c r="T16">
-        <v>0.0002632646777671512</v>
+        <v>0.004690677014026438</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4099473333333334</v>
+        <v>0.5484213333333333</v>
       </c>
       <c r="H17">
-        <v>1.229842</v>
+        <v>1.645264</v>
       </c>
       <c r="I17">
-        <v>0.07349636403230622</v>
+        <v>0.0883303038305739</v>
       </c>
       <c r="J17">
-        <v>0.07349636403230624</v>
+        <v>0.08833030383057389</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>209.1122436666667</v>
+        <v>173.5452066666667</v>
       </c>
       <c r="N17">
-        <v>627.336731</v>
+        <v>520.63562</v>
       </c>
       <c r="O17">
-        <v>0.5129127453994473</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="P17">
-        <v>0.5129127453994472</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="Q17">
-        <v>85.72500665850023</v>
+        <v>95.17589363374222</v>
       </c>
       <c r="R17">
-        <v>771.5250599265021</v>
+        <v>856.58304270368</v>
       </c>
       <c r="S17">
-        <v>0.03769722185268738</v>
+        <v>0.05387166293110253</v>
       </c>
       <c r="T17">
-        <v>0.03769722185268738</v>
+        <v>0.05387166293110252</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4099473333333334</v>
+        <v>0.5484213333333333</v>
       </c>
       <c r="H18">
-        <v>1.229842</v>
+        <v>1.645264</v>
       </c>
       <c r="I18">
-        <v>0.07349636403230622</v>
+        <v>0.0883303038305739</v>
       </c>
       <c r="J18">
-        <v>0.07349636403230624</v>
+        <v>0.08833030383057389</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>2.786578</v>
       </c>
       <c r="O18">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="P18">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="Q18">
-        <v>0.3807834067417779</v>
+        <v>0.5094062740657778</v>
       </c>
       <c r="R18">
-        <v>3.427050660676001</v>
+        <v>4.584656466592</v>
       </c>
       <c r="S18">
-        <v>0.0001674479492191856</v>
+        <v>0.0002883352290556413</v>
       </c>
       <c r="T18">
-        <v>0.0001674479492191856</v>
+        <v>0.0002883352290556413</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4099473333333334</v>
+        <v>0.5484213333333333</v>
       </c>
       <c r="H19">
-        <v>1.229842</v>
+        <v>1.645264</v>
       </c>
       <c r="I19">
-        <v>0.07349636403230622</v>
+        <v>0.0883303038305739</v>
       </c>
       <c r="J19">
-        <v>0.07349636403230624</v>
+        <v>0.08833030383057389</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>124.0924226666667</v>
+        <v>54.64271666666667</v>
       </c>
       <c r="N19">
-        <v>372.277268</v>
+        <v>163.92815</v>
       </c>
       <c r="O19">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="P19">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="Q19">
-        <v>50.87135775907289</v>
+        <v>29.96723153128889</v>
       </c>
       <c r="R19">
-        <v>457.8422198316561</v>
+        <v>269.7050837816</v>
       </c>
       <c r="S19">
-        <v>0.02237047197943899</v>
+        <v>0.01696211650236151</v>
       </c>
       <c r="T19">
-        <v>0.02237047197943899</v>
+        <v>0.01696211650236151</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4099473333333334</v>
+        <v>0.5484213333333333</v>
       </c>
       <c r="H20">
-        <v>1.229842</v>
+        <v>1.645264</v>
       </c>
       <c r="I20">
-        <v>0.07349636403230622</v>
+        <v>0.0883303038305739</v>
       </c>
       <c r="J20">
-        <v>0.07349636403230624</v>
+        <v>0.08833030383057389</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.9954153333333334</v>
+        <v>1.069012</v>
       </c>
       <c r="N20">
-        <v>2.986246</v>
+        <v>3.207036</v>
       </c>
       <c r="O20">
-        <v>0.002441565364515725</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="P20">
-        <v>0.002441565364515724</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="Q20">
-        <v>0.4080678614591112</v>
+        <v>0.5862689863893333</v>
       </c>
       <c r="R20">
-        <v>3.672610753132001</v>
+        <v>5.276420877504001</v>
       </c>
       <c r="S20">
-        <v>0.0001794461768391181</v>
+        <v>0.0003318412259228658</v>
       </c>
       <c r="T20">
-        <v>0.0001794461768391181</v>
+        <v>0.0003318412259228658</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,14 +1703,14 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.4099473333333334</v>
+        <v>0.5484213333333333</v>
       </c>
       <c r="H21">
-        <v>1.229842</v>
+        <v>1.645264</v>
       </c>
       <c r="I21">
-        <v>0.07349636403230622</v>
+        <v>0.0883303038305739</v>
       </c>
       <c r="J21">
-        <v>0.07349636403230624</v>
+        <v>0.08833030383057389</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>72.56660866666667</v>
+        <v>54.36641700000001</v>
       </c>
       <c r="N21">
-        <v>217.699826</v>
+        <v>163.099251</v>
       </c>
       <c r="O21">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="P21">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="Q21">
-        <v>29.74848771194356</v>
+        <v>29.815702899696</v>
       </c>
       <c r="R21">
-        <v>267.736389407492</v>
+        <v>268.341326097264</v>
       </c>
       <c r="S21">
-        <v>0.01308177607412157</v>
+        <v>0.01687634794213137</v>
       </c>
       <c r="T21">
-        <v>0.01308177607412157</v>
+        <v>0.01687634794213136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.001148666666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.003446</v>
+      </c>
+      <c r="I22">
+        <v>0.0001850075288829985</v>
+      </c>
+      <c r="J22">
+        <v>0.0001850075288829985</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>173.5452066666667</v>
+      </c>
+      <c r="N22">
+        <v>520.63562</v>
+      </c>
+      <c r="O22">
+        <v>0.6098887991422922</v>
+      </c>
+      <c r="P22">
+        <v>0.6098887991422922</v>
+      </c>
+      <c r="Q22">
+        <v>0.1993455940577778</v>
+      </c>
+      <c r="R22">
+        <v>1.79411034652</v>
+      </c>
+      <c r="S22">
+        <v>0.0001128340196227349</v>
+      </c>
+      <c r="T22">
+        <v>0.0001128340196227349</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.001148666666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.003446</v>
+      </c>
+      <c r="I23">
+        <v>0.0001850075288829985</v>
+      </c>
+      <c r="J23">
+        <v>0.0001850075288829985</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.9288593333333334</v>
+      </c>
+      <c r="N23">
+        <v>2.786578</v>
+      </c>
+      <c r="O23">
+        <v>0.003264284357140855</v>
+      </c>
+      <c r="P23">
+        <v>0.003264284357140855</v>
+      </c>
+      <c r="Q23">
+        <v>0.001066949754222222</v>
+      </c>
+      <c r="R23">
+        <v>0.009602547788</v>
+      </c>
+      <c r="S23">
+        <v>6.039171824860569E-07</v>
+      </c>
+      <c r="T23">
+        <v>6.039171824860569E-07</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.001148666666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.003446</v>
+      </c>
+      <c r="I24">
+        <v>0.0001850075288829985</v>
+      </c>
+      <c r="J24">
+        <v>0.0001850075288829985</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>54.64271666666667</v>
+      </c>
+      <c r="N24">
+        <v>163.92815</v>
+      </c>
+      <c r="O24">
+        <v>0.192030546333187</v>
+      </c>
+      <c r="P24">
+        <v>0.192030546333187</v>
+      </c>
+      <c r="Q24">
+        <v>0.06276626721111112</v>
+      </c>
+      <c r="R24">
+        <v>0.5648964049</v>
+      </c>
+      <c r="S24">
+        <v>3.552709684715508E-05</v>
+      </c>
+      <c r="T24">
+        <v>3.552709684715508E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.001148666666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.003446</v>
+      </c>
+      <c r="I25">
+        <v>0.0001850075288829985</v>
+      </c>
+      <c r="J25">
+        <v>0.0001850075288829985</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.069012</v>
+      </c>
+      <c r="N25">
+        <v>3.207036</v>
+      </c>
+      <c r="O25">
+        <v>0.00375682196858928</v>
+      </c>
+      <c r="P25">
+        <v>0.00375682196858928</v>
+      </c>
+      <c r="Q25">
+        <v>0.001227938450666667</v>
+      </c>
+      <c r="R25">
+        <v>0.011051446056</v>
+      </c>
+      <c r="S25">
+        <v>6.950403488620643E-07</v>
+      </c>
+      <c r="T25">
+        <v>6.950403488620646E-07</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.001148666666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.003446</v>
+      </c>
+      <c r="I26">
+        <v>0.0001850075288829985</v>
+      </c>
+      <c r="J26">
+        <v>0.0001850075288829985</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>54.36641700000001</v>
+      </c>
+      <c r="N26">
+        <v>163.099251</v>
+      </c>
+      <c r="O26">
+        <v>0.1910595481987908</v>
+      </c>
+      <c r="P26">
+        <v>0.1910595481987908</v>
+      </c>
+      <c r="Q26">
+        <v>0.062448890994</v>
+      </c>
+      <c r="R26">
+        <v>0.562040018946</v>
+      </c>
+      <c r="S26">
+        <v>3.534745488176042E-05</v>
+      </c>
+      <c r="T26">
+        <v>3.534745488176042E-05</v>
       </c>
     </row>
   </sheetData>
